--- a/teaching/traditional_assets/database/data/united_states/united_states_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/united_states/united_states_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AQ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0557</v>
+        <v>0.03835</v>
       </c>
       <c r="E2">
-        <v>0.0635</v>
+        <v>0.0594</v>
       </c>
       <c r="F2">
-        <v>0.127</v>
+        <v>0.106</v>
       </c>
       <c r="G2">
-        <v>0.1395512588073034</v>
+        <v>0.2107487404318605</v>
       </c>
       <c r="H2">
-        <v>0.1394504851704348</v>
+        <v>0.210071421257403</v>
       </c>
       <c r="I2">
-        <v>0.1228682034744501</v>
+        <v>0.1289771291292627</v>
       </c>
       <c r="J2">
-        <v>0.1019899135028651</v>
+        <v>0.1119043900521171</v>
       </c>
       <c r="K2">
-        <v>7838.615</v>
+        <v>1769.229</v>
       </c>
       <c r="L2">
-        <v>0.06264777076391276</v>
+        <v>0.01429854817805199</v>
       </c>
       <c r="M2">
-        <v>5092.31</v>
+        <v>5193.229</v>
       </c>
       <c r="N2">
-        <v>0.02817158615958686</v>
+        <v>0.02818507109184791</v>
       </c>
       <c r="O2">
-        <v>0.6496441016684709</v>
+        <v>2.93530628313237</v>
       </c>
       <c r="P2">
-        <v>3295.893</v>
+        <v>3410.858</v>
       </c>
       <c r="Q2">
-        <v>0.01823348021276772</v>
+        <v>0.01851165723949361</v>
       </c>
       <c r="R2">
-        <v>0.4204687945510782</v>
+        <v>1.927878188747754</v>
       </c>
       <c r="S2">
-        <v>1796.417</v>
+        <v>1782.371</v>
       </c>
       <c r="T2">
-        <v>0.3527705501039803</v>
+        <v>0.3432105535881433</v>
       </c>
       <c r="U2">
-        <v>11243.997</v>
+        <v>15357.127</v>
       </c>
       <c r="V2">
-        <v>0.06220383878114964</v>
+        <v>0.08334731941563467</v>
       </c>
       <c r="W2">
-        <v>0.1308721021331121</v>
+        <v>0.07281306266940771</v>
       </c>
       <c r="X2">
-        <v>0.05332502479619416</v>
+        <v>0.04634135901228095</v>
       </c>
       <c r="Y2">
-        <v>0.07754707733691793</v>
+        <v>0.02647170365712676</v>
       </c>
       <c r="Z2">
-        <v>0.9325536066573834</v>
+        <v>0.8205837736898818</v>
       </c>
       <c r="AA2">
-        <v>0.1291301828272218</v>
+        <v>0.1194716394305013</v>
       </c>
       <c r="AB2">
-        <v>0.04661242699018384</v>
+        <v>0.04072886122175615</v>
       </c>
       <c r="AC2">
-        <v>0.08336723357062065</v>
+        <v>0.07974657380421663</v>
       </c>
       <c r="AD2">
-        <v>70603.89999999999</v>
+        <v>70411.393</v>
       </c>
       <c r="AE2">
-        <v>4256.522080939085</v>
+        <v>4788.158471087331</v>
       </c>
       <c r="AF2">
-        <v>74860.42208093908</v>
+        <v>75199.55147108732</v>
       </c>
       <c r="AG2">
-        <v>63616.42508093908</v>
+        <v>59842.42447108732</v>
       </c>
       <c r="AH2">
-        <v>0.2928571787924131</v>
+        <v>0.289837534087279</v>
       </c>
       <c r="AI2">
-        <v>0.3799035950085173</v>
+        <v>0.3715750032574428</v>
       </c>
       <c r="AJ2">
-        <v>0.26032091638713</v>
+        <v>0.2451583529162417</v>
       </c>
       <c r="AK2">
-        <v>0.3423788614177443</v>
+        <v>0.3199728958024125</v>
       </c>
       <c r="AL2">
-        <v>2709.48</v>
+        <v>2783.68</v>
       </c>
       <c r="AM2">
-        <v>2561.655</v>
+        <v>2688.297</v>
       </c>
       <c r="AN2">
-        <v>2.966584573284583</v>
+        <v>2.93629655299533</v>
       </c>
       <c r="AO2">
-        <v>5.626703647932445</v>
+        <v>5.70352195654673</v>
       </c>
       <c r="AP2">
-        <v>2.672989810090212</v>
+        <v>2.495549331020011</v>
       </c>
       <c r="AQ2">
-        <v>5.95140290163976</v>
+        <v>5.905887630719374</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reliance Global Group, Inc. (OTCPK:RELI)</t>
+          <t>Quad M Solutions, Inc. (OTCPK:MMMM)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,22 +728,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-9.199999999999998</v>
+        <v>-0.153</v>
       </c>
       <c r="H3">
-        <v>-14.1</v>
+        <v>-0.153</v>
       </c>
       <c r="I3">
-        <v>-114</v>
+        <v>-0.153</v>
       </c>
       <c r="J3">
-        <v>-114</v>
+        <v>-0.153</v>
       </c>
       <c r="K3">
-        <v>-1.22</v>
+        <v>-5.74</v>
       </c>
       <c r="L3">
-        <v>-122</v>
+        <v>-0.5740000000000001</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,73 +767,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.017</v>
+        <v>0.394</v>
       </c>
       <c r="V3">
-        <v>0.0003794642857142858</v>
+        <v>0.03078125</v>
       </c>
       <c r="W3">
-        <v>6.354166666666666</v>
+        <v>3.337209302325582</v>
       </c>
       <c r="X3">
-        <v>0.04704689966640929</v>
+        <v>0.04197837322587164</v>
       </c>
       <c r="Y3">
-        <v>6.307119767000257</v>
+        <v>3.29523092909971</v>
       </c>
       <c r="Z3">
-        <v>-0.05847953216374268</v>
+        <v>-6.680026720106881</v>
       </c>
       <c r="AA3">
-        <v>6.666666666666664</v>
+        <v>1.022044088176353</v>
       </c>
       <c r="AB3">
-        <v>0.04704689966640929</v>
+        <v>0.04431654592101203</v>
       </c>
       <c r="AC3">
-        <v>6.619619767000255</v>
+        <v>0.9777275422553409</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="AG3">
-        <v>-0.017</v>
+        <v>0.4389999999999999</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.06110173842881243</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>-0.3336003203844614</v>
       </c>
       <c r="AJ3">
-        <v>-0.0003796083335194159</v>
+        <v>0.03315960419971296</v>
       </c>
       <c r="AK3">
-        <v>-0.1827956989247312</v>
+        <v>-0.1518505707367693</v>
       </c>
       <c r="AL3">
-        <v>0.184</v>
+        <v>1.52</v>
       </c>
       <c r="AM3">
-        <v>0.184</v>
-      </c>
-      <c r="AN3">
-        <v>-0</v>
+        <v>1.52</v>
       </c>
       <c r="AO3">
-        <v>-6.195652173913043</v>
-      </c>
-      <c r="AP3">
-        <v>0.01710261569416499</v>
+        <v>-1.006578947368421</v>
       </c>
       <c r="AQ3">
-        <v>-6.195652173913043</v>
+        <v>-1.006578947368421</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Health Insurance Innovations, Inc. (NasdaqGM:HIIQ)</t>
+          <t>Brown &amp; Brown, Inc. (NYSE:BRO)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,121 +847,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.352</v>
+        <v>0.09130000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.17</v>
       </c>
       <c r="F4">
-        <v>0.2</v>
+        <v>0.106</v>
       </c>
       <c r="G4">
-        <v>0.1124964579200907</v>
+        <v>0.2972866692882422</v>
       </c>
       <c r="H4">
-        <v>0.1051289317086994</v>
+        <v>0.2972866692882422</v>
       </c>
       <c r="I4">
-        <v>0.0969013966851046</v>
+        <v>0.2983103603582667</v>
       </c>
       <c r="J4">
-        <v>0.07193959689902164</v>
+        <v>0.2303485242282584</v>
       </c>
       <c r="K4">
-        <v>13.9</v>
+        <v>459.7</v>
       </c>
       <c r="L4">
-        <v>0.03938792859166903</v>
+        <v>0.1807707432166732</v>
       </c>
       <c r="M4">
-        <v>103.4</v>
+        <v>173.5</v>
       </c>
       <c r="N4">
-        <v>0.4529128339903636</v>
+        <v>0.0128831531424498</v>
       </c>
       <c r="O4">
-        <v>7.438848920863309</v>
+        <v>0.3774200565586252</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>96</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.007128430557205655</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.2088318468566456</v>
       </c>
       <c r="S4">
-        <v>103.4</v>
+        <v>77.5</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.446685878962536</v>
       </c>
       <c r="U4">
-        <v>9.16</v>
+        <v>1070.2</v>
       </c>
       <c r="V4">
-        <v>0.04012264564169952</v>
+        <v>0.07946714981584888</v>
       </c>
       <c r="W4">
-        <v>0.1519125683060109</v>
+        <v>0.1386936189470508</v>
       </c>
       <c r="X4">
-        <v>0.06162832723758635</v>
+        <v>0.04442691032934858</v>
       </c>
       <c r="Y4">
-        <v>0.09028424106842459</v>
+        <v>0.09426670861770227</v>
       </c>
       <c r="Z4">
-        <v>19.72336370097564</v>
+        <v>2.829379090292716</v>
       </c>
       <c r="AA4">
-        <v>1.418890834140983</v>
+        <v>0.6517432979312193</v>
       </c>
       <c r="AB4">
-        <v>0.04800823756005574</v>
+        <v>0.04115412493856029</v>
       </c>
       <c r="AC4">
-        <v>1.370882596580928</v>
+        <v>0.610589172992659</v>
       </c>
       <c r="AD4">
-        <v>158.8</v>
+        <v>2108.9</v>
       </c>
       <c r="AE4">
-        <v>0.5924855491329479</v>
+        <v>215.4837680446387</v>
       </c>
       <c r="AF4">
-        <v>159.392485549133</v>
+        <v>2324.383768044639</v>
       </c>
       <c r="AG4">
-        <v>150.232485549133</v>
+        <v>1254.183768044639</v>
       </c>
       <c r="AH4">
-        <v>0.4111312225290291</v>
+        <v>0.147191301530388</v>
       </c>
       <c r="AI4">
-        <v>0.5892677026703593</v>
+        <v>0.3857012526102074</v>
       </c>
       <c r="AJ4">
-        <v>0.3968813543999859</v>
+        <v>0.0851946928227675</v>
       </c>
       <c r="AK4">
-        <v>0.5748710698306501</v>
+        <v>0.2530543310623551</v>
       </c>
       <c r="AL4">
-        <v>3.76</v>
+        <v>58.2</v>
       </c>
       <c r="AM4">
-        <v>3.76</v>
+        <v>54.85</v>
       </c>
       <c r="AN4">
-        <v>3.919535974330495</v>
+        <v>2.259132297803964</v>
       </c>
       <c r="AO4">
-        <v>8.962765957446809</v>
+        <v>12.93470790378007</v>
       </c>
       <c r="AP4">
-        <v>3.708070728103985</v>
+        <v>1.343528407117984</v>
       </c>
       <c r="AQ4">
-        <v>8.962765957446809</v>
+        <v>13.72470373746581</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brown &amp; Brown, Inc. (NYSE:BRO)</t>
+          <t>Marsh &amp; McLennan Companies, Inc. (NYSE:MMC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -987,124 +984,124 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0883</v>
+        <v>0.0593</v>
       </c>
       <c r="E5">
-        <v>0.115</v>
+        <v>0.0602</v>
       </c>
       <c r="F5">
-        <v>0.1</v>
+        <v>0.0929</v>
       </c>
       <c r="G5">
-        <v>0.2629351299991362</v>
+        <v>0.2371719775070291</v>
       </c>
       <c r="H5">
-        <v>0.2629351299991362</v>
+        <v>0.2371719775070291</v>
       </c>
       <c r="I5">
-        <v>0.3272760253227524</v>
+        <v>0.2319856642945861</v>
       </c>
       <c r="J5">
-        <v>0.2467829704769277</v>
+        <v>0.1719060436205931</v>
       </c>
       <c r="K5">
-        <v>395.4</v>
+        <v>2033</v>
       </c>
       <c r="L5">
-        <v>0.1707696294376781</v>
+        <v>0.1190838800374883</v>
       </c>
       <c r="M5">
-        <v>219.3</v>
+        <v>1243</v>
       </c>
       <c r="N5">
-        <v>0.01977546327607196</v>
+        <v>0.02094662570587432</v>
       </c>
       <c r="O5">
-        <v>0.5546282245827011</v>
+        <v>0.6114117068371864</v>
       </c>
       <c r="P5">
-        <v>89.8</v>
+        <v>927</v>
       </c>
       <c r="Q5">
-        <v>0.008097750123991162</v>
+        <v>0.01562149801234553</v>
       </c>
       <c r="R5">
-        <v>0.2271117855336368</v>
+        <v>0.455976389572061</v>
       </c>
       <c r="S5">
-        <v>129.5</v>
+        <v>316</v>
       </c>
       <c r="T5">
-        <v>0.590515275877793</v>
+        <v>0.254223652453741</v>
       </c>
       <c r="U5">
-        <v>497.5</v>
+        <v>2388</v>
       </c>
       <c r="V5">
-        <v>0.04486225709004013</v>
+        <v>0.04024178775995807</v>
       </c>
       <c r="W5">
-        <v>0.1345172484180445</v>
+        <v>0.2667979002624672</v>
       </c>
       <c r="X5">
-        <v>0.05076106033666895</v>
+        <v>0.04629533985447221</v>
       </c>
       <c r="Y5">
-        <v>0.08375618808137554</v>
+        <v>0.220502560407995</v>
       </c>
       <c r="Z5">
-        <v>3.653056188142501</v>
+        <v>2.420975233280702</v>
       </c>
       <c r="AA5">
-        <v>0.9015120574289287</v>
+        <v>0.4161802740567279</v>
       </c>
       <c r="AB5">
-        <v>0.04753583458066012</v>
+        <v>0.04025264948431206</v>
       </c>
       <c r="AC5">
-        <v>0.8539762228482686</v>
+        <v>0.3759276245724159</v>
       </c>
       <c r="AD5">
-        <v>1787.5</v>
+        <v>12748</v>
       </c>
       <c r="AE5">
-        <v>184.625454838495</v>
+        <v>2362.703695814129</v>
       </c>
       <c r="AF5">
-        <v>1972.125454838495</v>
+        <v>15110.70369581413</v>
       </c>
       <c r="AG5">
-        <v>1474.625454838495</v>
+        <v>12722.70369581413</v>
       </c>
       <c r="AH5">
-        <v>0.1509862200273052</v>
+        <v>0.2029589929849489</v>
       </c>
       <c r="AI5">
-        <v>0.3730405098083013</v>
+        <v>0.633235189458635</v>
       </c>
       <c r="AJ5">
-        <v>0.1173679346118445</v>
+        <v>0.1765472780213172</v>
       </c>
       <c r="AK5">
-        <v>0.3079112186022749</v>
+        <v>0.5924507213710265</v>
       </c>
       <c r="AL5">
-        <v>59.7</v>
+        <v>517</v>
       </c>
       <c r="AM5">
-        <v>54.73</v>
+        <v>505</v>
       </c>
       <c r="AN5">
-        <v>1.941457586618877</v>
+        <v>2.476782591801049</v>
       </c>
       <c r="AO5">
-        <v>12.50251256281407</v>
+        <v>7.775628626692456</v>
       </c>
       <c r="AP5">
-        <v>1.601635119841963</v>
+        <v>2.471867825104746</v>
       </c>
       <c r="AQ5">
-        <v>13.63785857847615</v>
+        <v>7.96039603960396</v>
       </c>
     </row>
     <row r="6">
@@ -1115,7 +1112,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marsh &amp; McLennan Companies, Inc. (NYSE:MMC)</t>
+          <t>SelectQuote, Inc. (NYSE:SLQT)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1123,125 +1120,116 @@
           <t>Insurance (General)</t>
         </is>
       </c>
-      <c r="D6">
-        <v>0.0466</v>
-      </c>
-      <c r="E6">
-        <v>0.00404</v>
-      </c>
-      <c r="F6">
-        <v>0.112</v>
-      </c>
       <c r="G6">
-        <v>0.215527950310559</v>
+        <v>0.2685859441151566</v>
       </c>
       <c r="H6">
-        <v>0.215527950310559</v>
+        <v>0.2457239627434377</v>
       </c>
       <c r="I6">
-        <v>0.1985648324786582</v>
+        <v>0.2467045235579204</v>
       </c>
       <c r="J6">
-        <v>0.1430560894405342</v>
+        <v>0.1909675756429828</v>
       </c>
       <c r="K6">
-        <v>1504</v>
+        <v>83.7</v>
       </c>
       <c r="L6">
-        <v>0.09341614906832298</v>
+        <v>0.1417442845046571</v>
       </c>
       <c r="M6">
-        <v>1262</v>
+        <v>2.51</v>
       </c>
       <c r="N6">
-        <v>0.02236121693215444</v>
+        <v>0.0007437918568126593</v>
       </c>
       <c r="O6">
-        <v>0.839095744680851</v>
+        <v>0.02998805256869773</v>
       </c>
       <c r="P6">
-        <v>868</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.01537998121799529</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.5771276595744681</v>
+        <v>-0</v>
       </c>
       <c r="S6">
-        <v>394</v>
+        <v>2.51</v>
       </c>
       <c r="T6">
-        <v>0.312202852614897</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1213</v>
+        <v>305.4</v>
       </c>
       <c r="V6">
-        <v>0.02149299218597728</v>
+        <v>0.09049961476915783</v>
       </c>
       <c r="W6">
-        <v>0.2017979337179659</v>
+        <v>0.3188571428571429</v>
       </c>
       <c r="X6">
-        <v>0.05326080293816891</v>
+        <v>0.04298181547667243</v>
       </c>
       <c r="Y6">
-        <v>0.148537130779797</v>
+        <v>0.2758753273804705</v>
       </c>
       <c r="Z6">
-        <v>3.130754106391593</v>
+        <v>1.744090428426063</v>
       </c>
       <c r="AA6">
-        <v>0.4478734394602756</v>
+        <v>0.3330647208186565</v>
       </c>
       <c r="AB6">
-        <v>0.04644251970670368</v>
+        <v>0.04090591098813338</v>
       </c>
       <c r="AC6">
-        <v>0.4014309197535719</v>
+        <v>0.2921588098305231</v>
       </c>
       <c r="AD6">
-        <v>14866</v>
+        <v>312.8</v>
       </c>
       <c r="AE6">
-        <v>1925.530985468016</v>
+        <v>55.50489419524007</v>
       </c>
       <c r="AF6">
-        <v>16791.53098546802</v>
+        <v>368.3048941952401</v>
       </c>
       <c r="AG6">
-        <v>15578.53098546802</v>
+        <v>62.9048941952401</v>
       </c>
       <c r="AH6">
-        <v>0.229303124881752</v>
+        <v>0.09840081557146514</v>
       </c>
       <c r="AI6">
-        <v>0.6829009425325946</v>
+        <v>0.4032660905860714</v>
       </c>
       <c r="AJ6">
-        <v>0.216321823532921</v>
+        <v>0.01829957952975275</v>
       </c>
       <c r="AK6">
-        <v>0.666446079669925</v>
+        <v>0.1034781835051932</v>
       </c>
       <c r="AL6">
-        <v>486</v>
+        <v>31.8</v>
       </c>
       <c r="AM6">
-        <v>429</v>
+        <v>31.8</v>
       </c>
       <c r="AN6">
-        <v>3.55221027479092</v>
+        <v>1.901750972762646</v>
       </c>
       <c r="AO6">
-        <v>6.627572016460905</v>
+        <v>4.654088050314465</v>
       </c>
       <c r="AP6">
-        <v>3.722468574783278</v>
+        <v>0.3824470707395435</v>
       </c>
       <c r="AQ6">
-        <v>7.508158508158508</v>
+        <v>4.654088050314465</v>
       </c>
     </row>
     <row r="7">
@@ -1252,7 +1240,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRP Group, Inc. (NasdaqGS:BRP)</t>
+          <t>Arthur J. Gallagher &amp; Co. (NYSE:AJG)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1260,113 +1248,125 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.05400000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.175</v>
+      </c>
       <c r="F7">
-        <v>0.3</v>
+        <v>0.101</v>
       </c>
       <c r="G7">
-        <v>0.113022113022113</v>
+        <v>0.1835273977656764</v>
       </c>
       <c r="H7">
-        <v>0.113022113022113</v>
+        <v>0.1835273977656764</v>
       </c>
       <c r="I7">
-        <v>0.06999295747752382</v>
+        <v>0.1487816899166078</v>
       </c>
       <c r="J7">
-        <v>0.06999295747752382</v>
+        <v>0.1468612248494913</v>
       </c>
       <c r="K7">
-        <v>2.45</v>
+        <v>775.1</v>
       </c>
       <c r="L7">
-        <v>0.02006552006552007</v>
+        <v>0.1143873319461047</v>
       </c>
       <c r="M7">
-        <v>24.4</v>
+        <v>341.4</v>
       </c>
       <c r="N7">
-        <v>0.08221024258760107</v>
+        <v>0.01434924050739318</v>
       </c>
       <c r="O7">
-        <v>9.959183673469386</v>
+        <v>0.4404592955747645</v>
       </c>
       <c r="P7">
-        <v>11.9</v>
+        <v>341.4</v>
       </c>
       <c r="Q7">
-        <v>0.04009433962264151</v>
+        <v>0.01434924050739318</v>
       </c>
       <c r="R7">
-        <v>4.857142857142857</v>
+        <v>0.4404592955747645</v>
       </c>
       <c r="S7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.5122950819672131</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>11.1</v>
+        <v>629.9</v>
       </c>
       <c r="V7">
-        <v>0.0373989218328841</v>
+        <v>0.02647506325602508</v>
+      </c>
+      <c r="W7">
+        <v>0.1600355129766894</v>
       </c>
       <c r="X7">
-        <v>0.06270862039809266</v>
+        <v>0.04537811850773062</v>
+      </c>
+      <c r="Y7">
+        <v>0.1146573944689588</v>
       </c>
       <c r="Z7">
-        <v>4.185907864107423</v>
+        <v>1.719385089819787</v>
       </c>
       <c r="AA7">
-        <v>0.2929840711373035</v>
+        <v>0.2525110002788866</v>
       </c>
       <c r="AB7">
-        <v>0.04804893857744553</v>
+        <v>0.04076900153357272</v>
       </c>
       <c r="AC7">
-        <v>0.2449351325598579</v>
+        <v>0.2117419987453139</v>
       </c>
       <c r="AD7">
-        <v>193.4</v>
+        <v>4661.5</v>
       </c>
       <c r="AE7">
-        <v>29.16929945997171</v>
+        <v>438.7019547803687</v>
       </c>
       <c r="AF7">
-        <v>222.5692994599717</v>
+        <v>5100.201954780368</v>
       </c>
       <c r="AG7">
-        <v>211.4692994599717</v>
+        <v>4470.301954780369</v>
       </c>
       <c r="AH7">
-        <v>0.4285376507456143</v>
+        <v>0.1765239858826109</v>
       </c>
       <c r="AI7">
-        <v>2.197796377054487</v>
+        <v>0.4671198199061872</v>
       </c>
       <c r="AJ7">
-        <v>0.4160575893225394</v>
+        <v>0.1581707791452007</v>
       </c>
       <c r="AK7">
-        <v>2.345247226345015</v>
+        <v>0.4344949317624733</v>
       </c>
       <c r="AL7">
-        <v>10.6</v>
+        <v>196.7</v>
       </c>
       <c r="AM7">
-        <v>10.6</v>
+        <v>118.1</v>
       </c>
       <c r="AN7">
-        <v>8.603202846975089</v>
+        <v>2.817808136371879</v>
       </c>
       <c r="AO7">
-        <v>1.122641509433962</v>
+        <v>5.034570411794611</v>
       </c>
       <c r="AP7">
-        <v>9.406997306938244</v>
+        <v>2.702231732322051</v>
       </c>
       <c r="AQ7">
-        <v>1.122641509433962</v>
+        <v>8.385266723116004</v>
       </c>
     </row>
     <row r="8">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arthur J. Gallagher &amp; Co. (NYSE:AJG)</t>
+          <t>eHealth, Inc. (NasdaqGS:EHTH)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1386,124 +1386,115 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.102</v>
-      </c>
-      <c r="E8">
-        <v>0.171</v>
+        <v>0.262</v>
       </c>
       <c r="F8">
-        <v>0.101</v>
+        <v>0.264</v>
       </c>
       <c r="G8">
-        <v>0.1517084348955673</v>
+        <v>0.2122801082543978</v>
       </c>
       <c r="H8">
-        <v>0.1517084348955673</v>
+        <v>0.1872462787550744</v>
       </c>
       <c r="I8">
-        <v>0.1088976020361976</v>
+        <v>0.1753595145999672</v>
       </c>
       <c r="J8">
-        <v>0.1088976020361976</v>
+        <v>0.1329943719290271</v>
       </c>
       <c r="K8">
-        <v>687.6</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L8">
-        <v>0.1003605155226016</v>
+        <v>0.1258457374830853</v>
       </c>
       <c r="M8">
-        <v>315.4</v>
+        <v>19.9</v>
       </c>
       <c r="N8">
-        <v>0.0178182023614485</v>
+        <v>0.01088264245871158</v>
       </c>
       <c r="O8">
-        <v>0.4586969168121</v>
+        <v>0.2674731182795699</v>
       </c>
       <c r="P8">
-        <v>315.4</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.0178182023614485</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.4586969168121</v>
+        <v>-0</v>
       </c>
       <c r="S8">
+        <v>19.9</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>87.8</v>
+      </c>
+      <c r="V8">
+        <v>0.04801487476758175</v>
+      </c>
+      <c r="W8">
+        <v>0.1723818350324375</v>
+      </c>
+      <c r="X8">
+        <v>0.04107963804555095</v>
+      </c>
+      <c r="Y8">
+        <v>0.1313021969868865</v>
+      </c>
+      <c r="Z8">
+        <v>1.688480611685633</v>
+      </c>
+      <c r="AA8">
+        <v>0.2245584184654703</v>
+      </c>
+      <c r="AB8">
+        <v>0.04052407424335785</v>
+      </c>
+      <c r="AC8">
+        <v>0.1840343442221124</v>
+      </c>
+      <c r="AD8">
         <v>0</v>
       </c>
-      <c r="T8">
+      <c r="AE8">
+        <v>46.837274842497</v>
+      </c>
+      <c r="AF8">
+        <v>46.837274842497</v>
+      </c>
+      <c r="AG8">
+        <v>-40.962725157503</v>
+      </c>
+      <c r="AH8">
+        <v>0.02497405563533469</v>
+      </c>
+      <c r="AI8">
+        <v>0.05694243443431254</v>
+      </c>
+      <c r="AJ8">
+        <v>-0.02291445011466999</v>
+      </c>
+      <c r="AK8">
+        <v>-0.05575152719219809</v>
+      </c>
+      <c r="AL8">
         <v>0</v>
       </c>
-      <c r="U8">
-        <v>578.9</v>
-      </c>
-      <c r="V8">
-        <v>0.03270436698491611</v>
-      </c>
-      <c r="W8">
-        <v>0.1513037737924964</v>
-      </c>
-      <c r="X8">
-        <v>0.05341610430848104</v>
-      </c>
-      <c r="Y8">
-        <v>0.09788766948401539</v>
-      </c>
-      <c r="Z8">
-        <v>2.017313631357366</v>
-      </c>
-      <c r="AA8">
-        <v>0.2196806170097511</v>
-      </c>
-      <c r="AB8">
-        <v>0.04587568600035451</v>
-      </c>
-      <c r="AC8">
-        <v>0.1738049310093966</v>
-      </c>
-      <c r="AD8">
-        <v>4970.6</v>
-      </c>
-      <c r="AE8">
-        <v>427.5492958469956</v>
-      </c>
-      <c r="AF8">
-        <v>5398.149295846996</v>
-      </c>
-      <c r="AG8">
-        <v>4819.249295846997</v>
-      </c>
-      <c r="AH8">
-        <v>0.2336947229834793</v>
-      </c>
-      <c r="AI8">
-        <v>0.5235762490870438</v>
-      </c>
-      <c r="AJ8">
-        <v>0.213996267649476</v>
-      </c>
-      <c r="AK8">
-        <v>0.4952343886517949</v>
-      </c>
-      <c r="AL8">
-        <v>168.2</v>
-      </c>
       <c r="AM8">
-        <v>83.39999999999999</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>3.896676074004391</v>
-      </c>
-      <c r="AO8">
-        <v>4.309155766944114</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>3.778025474950609</v>
-      </c>
-      <c r="AQ8">
-        <v>8.69064748201439</v>
+        <v>-0.3464371207501945</v>
       </c>
     </row>
     <row r="9">
@@ -1514,7 +1505,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Marketing Alliance, Inc. (OTCPK:MAAL)</t>
+          <t>Goosehead Insurance, Inc (NasdaqGS:GSHD)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1522,119 +1513,119 @@
           <t>Insurance (General)</t>
         </is>
       </c>
-      <c r="D9">
-        <v>0.0885</v>
-      </c>
-      <c r="E9">
-        <v>-0.0224</v>
+      <c r="F9">
+        <v>0.794</v>
       </c>
       <c r="G9">
-        <v>0.01692307692307692</v>
+        <v>0.1614255765199161</v>
       </c>
       <c r="H9">
-        <v>0.01692307692307692</v>
+        <v>0.1614255765199161</v>
       </c>
       <c r="I9">
-        <v>0.02994505494505495</v>
+        <v>0.1103090458735547</v>
       </c>
       <c r="J9">
-        <v>0.02407952871870398</v>
+        <v>0.1103090458735547</v>
       </c>
       <c r="K9">
-        <v>0.545</v>
+        <v>5.68</v>
       </c>
       <c r="L9">
-        <v>0.01497252747252747</v>
+        <v>0.05953878406708595</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.003963000306869493</v>
       </c>
       <c r="O9">
-        <v>-0</v>
+        <v>1.591549295774648</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.003963000306869493</v>
       </c>
       <c r="R9">
-        <v>-0</v>
+        <v>1.591549295774648</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
-        <v>3.72</v>
+        <v>20</v>
       </c>
       <c r="V9">
-        <v>0.1624454148471616</v>
+        <v>0.008767699793959055</v>
       </c>
       <c r="W9">
-        <v>0.05190476190476191</v>
+        <v>-0.6926829268292684</v>
       </c>
       <c r="X9">
-        <v>0.04704689966640929</v>
+        <v>0.04152545136460509</v>
       </c>
       <c r="Y9">
-        <v>0.00485786223835262</v>
+        <v>-0.7342083781938734</v>
       </c>
       <c r="Z9">
-        <v>5.861513687600644</v>
+        <v>2.000730450399967</v>
       </c>
       <c r="AA9">
-        <v>0.1411424871756562</v>
+        <v>0.2206986670337878</v>
       </c>
       <c r="AB9">
-        <v>0.04704689966640929</v>
+        <v>0.04054436313698769</v>
       </c>
       <c r="AC9">
-        <v>0.0940955875092469</v>
+        <v>0.1801543038968001</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>19.78258511831442</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>103.0825851183144</v>
       </c>
       <c r="AG9">
-        <v>-3.72</v>
+        <v>83.08258511831441</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.04323602804656799</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1.920223940242897</v>
       </c>
       <c r="AJ9">
-        <v>-0.1939520333680918</v>
+        <v>0.03514220333120193</v>
       </c>
       <c r="AK9">
-        <v>-0.7085714285714286</v>
+        <v>2.466633271361926</v>
       </c>
       <c r="AL9">
-        <v>0.446</v>
+        <v>2.19</v>
       </c>
       <c r="AM9">
-        <v>0.349</v>
+        <v>1.452</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>4.792865362485615</v>
       </c>
       <c r="AO9">
-        <v>2.443946188340807</v>
+        <v>5.4337899543379</v>
       </c>
       <c r="AP9">
-        <v>-3.206896551724138</v>
+        <v>4.780355875622233</v>
       </c>
       <c r="AQ9">
-        <v>3.123209169054442</v>
+        <v>8.195592286501379</v>
       </c>
     </row>
     <row r="10">
@@ -1645,7 +1636,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Crawford &amp; Company (NYSE:CRD.B)</t>
+          <t>National General Holdings Corp. (NasdaqGM:NGHC)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1654,121 +1645,121 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.0219</v>
+        <v>0.197</v>
       </c>
       <c r="E10">
-        <v>-0.0361</v>
+        <v>0.288</v>
       </c>
       <c r="G10">
-        <v>0.09194053208137716</v>
+        <v>0.0965975896531452</v>
       </c>
       <c r="H10">
-        <v>0.09194053208137716</v>
+        <v>0.0965975896531452</v>
       </c>
       <c r="I10">
-        <v>0.08380970501624055</v>
+        <v>0.1179291775549215</v>
       </c>
       <c r="J10">
-        <v>0.04762617923432121</v>
+        <v>0.09474374830564346</v>
       </c>
       <c r="K10">
-        <v>31.7</v>
+        <v>484.6</v>
       </c>
       <c r="L10">
-        <v>0.03100547730829421</v>
+        <v>0.08902851263962376</v>
       </c>
       <c r="M10">
-        <v>42.8</v>
+        <v>34.9</v>
       </c>
       <c r="N10">
-        <v>0.07479902132121635</v>
+        <v>0.008998092095085855</v>
       </c>
       <c r="O10">
-        <v>1.350157728706625</v>
+        <v>0.07201815930664465</v>
       </c>
       <c r="P10">
-        <v>13.3</v>
+        <v>22.7</v>
       </c>
       <c r="Q10">
-        <v>0.02324362111149948</v>
+        <v>0.005852627236631774</v>
       </c>
       <c r="R10">
-        <v>0.4195583596214512</v>
+        <v>0.04684275691291787</v>
       </c>
       <c r="S10">
-        <v>29.5</v>
+        <v>12.2</v>
       </c>
       <c r="T10">
-        <v>0.6892523364485981</v>
+        <v>0.3495702005730659</v>
       </c>
       <c r="U10">
-        <v>46.1</v>
+        <v>188.3</v>
       </c>
       <c r="V10">
-        <v>0.08056623558196434</v>
+        <v>0.04854844531531997</v>
       </c>
       <c r="W10">
-        <v>0.1705217859064013</v>
+        <v>0.2296900180111859</v>
       </c>
       <c r="X10">
-        <v>0.06246312197442512</v>
+        <v>0.04526600475893743</v>
       </c>
       <c r="Y10">
-        <v>0.1080586639319761</v>
+        <v>0.1844240132522484</v>
       </c>
       <c r="Z10">
-        <v>2.744957464591506</v>
+        <v>1.814557561864682</v>
       </c>
       <c r="AA10">
-        <v>0.130731836199223</v>
+        <v>0.1719179849274095</v>
       </c>
       <c r="AB10">
-        <v>0.04491855553304448</v>
+        <v>0.04068872090993958</v>
       </c>
       <c r="AC10">
-        <v>0.08581328066617851</v>
+        <v>0.1312292640174699</v>
       </c>
       <c r="AD10">
-        <v>297.8</v>
+        <v>679.4</v>
       </c>
       <c r="AE10">
-        <v>124.5647879569783</v>
+        <v>132.9395036652573</v>
       </c>
       <c r="AF10">
-        <v>422.3647879569783</v>
+        <v>812.3395036652573</v>
       </c>
       <c r="AG10">
-        <v>376.2647879569782</v>
+        <v>624.0395036652574</v>
       </c>
       <c r="AH10">
-        <v>0.4246729756284599</v>
+        <v>0.1731720272731161</v>
       </c>
       <c r="AI10">
-        <v>0.7107350065431697</v>
+        <v>0.2084022861056231</v>
       </c>
       <c r="AJ10">
-        <v>0.3967092850831752</v>
+        <v>0.1385941519762517</v>
       </c>
       <c r="AK10">
-        <v>0.6864081681702414</v>
+        <v>0.1682210638119105</v>
       </c>
       <c r="AL10">
-        <v>11.4</v>
+        <v>47.6</v>
       </c>
       <c r="AM10">
-        <v>11.017</v>
+        <v>47.6</v>
       </c>
       <c r="AN10">
-        <v>2.264638783269962</v>
+        <v>0.9199729180771834</v>
       </c>
       <c r="AO10">
-        <v>6.956140350877193</v>
+        <v>13.43697478991597</v>
       </c>
       <c r="AP10">
-        <v>2.861329185984625</v>
+        <v>0.8450094836360966</v>
       </c>
       <c r="AQ10">
-        <v>7.197966778614868</v>
+        <v>13.43697478991597</v>
       </c>
     </row>
     <row r="11">
@@ -1779,7 +1770,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>American Financial Group, Inc. (NYSE:AFG)</t>
+          <t>The Marketing Alliance, Inc. (OTCPK:MAAL)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1788,124 +1779,115 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0672</v>
-      </c>
-      <c r="E11">
-        <v>0.0635</v>
-      </c>
-      <c r="F11">
-        <v>0.0545</v>
+        <v>0.0404</v>
       </c>
       <c r="G11">
-        <v>0.1238774432118331</v>
+        <v>0.04892128279883382</v>
       </c>
       <c r="H11">
-        <v>0.1238774432118331</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="I11">
-        <v>0.1200870454910467</v>
+        <v>0.03942713692544673</v>
       </c>
       <c r="J11">
-        <v>0.09532835833425068</v>
+        <v>0.03942713692544673</v>
       </c>
       <c r="K11">
-        <v>657</v>
+        <v>-0.791</v>
       </c>
       <c r="L11">
-        <v>0.08676703645007924</v>
+        <v>-0.02306122448979592</v>
       </c>
       <c r="M11">
-        <v>148</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.01499387074878175</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>0.2252663622526636</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>142</v>
+        <v>-0</v>
       </c>
       <c r="Q11">
-        <v>0.01438601112383114</v>
+        <v>-0</v>
       </c>
       <c r="R11">
-        <v>0.2161339421613394</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>6</v>
-      </c>
-      <c r="T11">
-        <v>0.04054054054054054</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>2693</v>
+        <v>1.08</v>
       </c>
       <c r="V11">
-        <v>0.2728276616653327</v>
+        <v>0.05346534653465347</v>
       </c>
       <c r="W11">
-        <v>0.1272269558481797</v>
+        <v>-0.08818283166109253</v>
       </c>
       <c r="X11">
-        <v>0.0533892466542194</v>
+        <v>0.05254617199684246</v>
       </c>
       <c r="Y11">
-        <v>0.07383770919396029</v>
+        <v>-0.140729003657935</v>
       </c>
       <c r="Z11">
-        <v>1.375850616309324</v>
+        <v>3.863375708807586</v>
       </c>
       <c r="AA11">
-        <v>0.1311575805659349</v>
+        <v>0.1523218430656015</v>
       </c>
       <c r="AB11">
-        <v>0.04587947434085605</v>
+        <v>0.04088076413011991</v>
       </c>
       <c r="AC11">
-        <v>0.08527810622507884</v>
+        <v>0.1114410789354816</v>
       </c>
       <c r="AD11">
-        <v>2704</v>
+        <v>7.06</v>
       </c>
       <c r="AE11">
-        <v>293.5044577089709</v>
+        <v>3.628246017285887</v>
       </c>
       <c r="AF11">
-        <v>2997.504457708971</v>
+        <v>10.68824601728589</v>
       </c>
       <c r="AG11">
-        <v>304.5044577089711</v>
+        <v>9.608246017285888</v>
       </c>
       <c r="AH11">
-        <v>0.2329388274456</v>
+        <v>0.346029554779655</v>
       </c>
       <c r="AI11">
-        <v>0.3216722674022234</v>
+        <v>0.5941794440111041</v>
       </c>
       <c r="AJ11">
-        <v>0.02992612669107316</v>
+        <v>0.3223351689902867</v>
       </c>
       <c r="AK11">
-        <v>0.04595943745153943</v>
+        <v>0.5682579971608553</v>
       </c>
       <c r="AL11">
-        <v>66</v>
+        <v>0.27</v>
       </c>
       <c r="AM11">
-        <v>66</v>
+        <v>-0.08799999999999997</v>
       </c>
       <c r="AN11">
-        <v>2.234710743801653</v>
+        <v>2.814992025518341</v>
       </c>
       <c r="AO11">
-        <v>13.68181818181818</v>
+        <v>4.111111111111112</v>
       </c>
       <c r="AP11">
-        <v>0.2516565766189844</v>
+        <v>3.831039081852427</v>
       </c>
       <c r="AQ11">
-        <v>13.68181818181818</v>
+        <v>-12.61363636363637</v>
       </c>
     </row>
     <row r="12">
@@ -1916,7 +1898,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The Hartford Financial Services Group, Inc. (NYSE:HIG)</t>
+          <t>Assurant, Inc. (NYSE:AIZ)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1925,124 +1907,121 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.0138</v>
+        <v>-0.00569</v>
       </c>
       <c r="E12">
-        <v>0.189</v>
-      </c>
-      <c r="F12">
-        <v>0.1</v>
+        <v>0.279</v>
       </c>
       <c r="G12">
-        <v>0.1270182454386403</v>
+        <v>0.08568714940095175</v>
       </c>
       <c r="H12">
-        <v>0.1270182454386403</v>
+        <v>0.08568714940095175</v>
       </c>
       <c r="I12">
-        <v>0.1236443713407176</v>
+        <v>0.07958960810983415</v>
       </c>
       <c r="J12">
-        <v>0.1044737667154869</v>
+        <v>0.06740259547190772</v>
       </c>
       <c r="K12">
-        <v>1733</v>
+        <v>430.2</v>
       </c>
       <c r="L12">
-        <v>0.08662834291427143</v>
+        <v>0.04256161144474015</v>
       </c>
       <c r="M12">
-        <v>570</v>
+        <v>427.4</v>
       </c>
       <c r="N12">
-        <v>0.02605833409527293</v>
+        <v>0.05339696659253892</v>
       </c>
       <c r="O12">
-        <v>0.3289094056549337</v>
+        <v>0.9934913993491399</v>
       </c>
       <c r="P12">
-        <v>436</v>
+        <v>153.4</v>
       </c>
       <c r="Q12">
-        <v>0.0199323397641035</v>
+        <v>0.01916493840733615</v>
       </c>
       <c r="R12">
-        <v>0.2515868436237738</v>
+        <v>0.3565783356578336</v>
       </c>
       <c r="S12">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c r="T12">
-        <v>0.2350877192982456</v>
+        <v>0.6410856340664484</v>
       </c>
       <c r="U12">
-        <v>207</v>
+        <v>2203</v>
       </c>
       <c r="V12">
-        <v>0.00946328975038859</v>
+        <v>0.2752305039854077</v>
       </c>
       <c r="W12">
-        <v>0.1361458087830937</v>
+        <v>0.07606485492511979</v>
       </c>
       <c r="X12">
-        <v>0.05208961981698508</v>
+        <v>0.04647904224203216</v>
       </c>
       <c r="Y12">
-        <v>0.08405618896610866</v>
+        <v>0.02958581268308763</v>
       </c>
       <c r="Z12">
-        <v>1.220675136587337</v>
+        <v>1.934613708362077</v>
       </c>
       <c r="AA12">
-        <v>0.1275285294552206</v>
+        <v>0.1303979851791363</v>
       </c>
       <c r="AB12">
-        <v>0.04607216853905809</v>
+        <v>0.03972508240770745</v>
       </c>
       <c r="AC12">
-        <v>0.08145636091616246</v>
+        <v>0.09067290277142886</v>
       </c>
       <c r="AD12">
-        <v>5124</v>
+        <v>2008.6</v>
       </c>
       <c r="AE12">
-        <v>157.4717566447172</v>
+        <v>94.16059054114599</v>
       </c>
       <c r="AF12">
-        <v>5281.471756644717</v>
+        <v>2102.760590541146</v>
       </c>
       <c r="AG12">
-        <v>5074.471756644717</v>
+        <v>-100.239409458854</v>
       </c>
       <c r="AH12">
-        <v>0.1944901493141022</v>
+        <v>0.2080507360945948</v>
       </c>
       <c r="AI12">
-        <v>0.2472660287116747</v>
+        <v>0.261447617005303</v>
       </c>
       <c r="AJ12">
-        <v>0.1883027654580634</v>
+        <v>-0.0126821747541116</v>
       </c>
       <c r="AK12">
-        <v>0.2398997060497505</v>
+        <v>-0.01716498611624851</v>
       </c>
       <c r="AL12">
-        <v>257</v>
+        <v>103.1</v>
       </c>
       <c r="AM12">
-        <v>257</v>
+        <v>103.1</v>
       </c>
       <c r="AN12">
-        <v>1.739307535641548</v>
+        <v>2.077575506826645</v>
       </c>
       <c r="AO12">
-        <v>9.575875486381323</v>
+        <v>7.787584869059166</v>
       </c>
       <c r="AP12">
-        <v>1.722495504631608</v>
+        <v>-0.1036816399036553</v>
       </c>
       <c r="AQ12">
-        <v>9.575875486381323</v>
+        <v>7.787584869059166</v>
       </c>
     </row>
     <row r="13">
@@ -2053,7 +2032,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>National General Holdings Corp. (NasdaqGM:NGHC)</t>
+          <t>The Hartford Financial Services Group, Inc. (NYSE:HIG)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2062,121 +2041,124 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.253</v>
+        <v>0.022</v>
       </c>
       <c r="E13">
-        <v>0.222</v>
+        <v>0.0125</v>
+      </c>
+      <c r="F13">
+        <v>0.0596</v>
       </c>
       <c r="G13">
-        <v>0.07183039378591019</v>
+        <v>0.1686958215642349</v>
       </c>
       <c r="H13">
-        <v>0.07183039378591019</v>
+        <v>0.1686958215642349</v>
       </c>
       <c r="I13">
-        <v>0.07451191158689253</v>
+        <v>0.1237131545007913</v>
       </c>
       <c r="J13">
-        <v>0.05652304278388763</v>
+        <v>0.1008631502179959</v>
       </c>
       <c r="K13">
-        <v>267</v>
+        <v>1748</v>
       </c>
       <c r="L13">
-        <v>0.05345238333566895</v>
+        <v>0.08512710626278368</v>
       </c>
       <c r="M13">
-        <v>21.6</v>
+        <v>722</v>
       </c>
       <c r="N13">
-        <v>0.008731153239823758</v>
+        <v>0.04113725713634551</v>
       </c>
       <c r="O13">
-        <v>0.08089887640449438</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="P13">
-        <v>17.9</v>
+        <v>447</v>
       </c>
       <c r="Q13">
-        <v>0.007235539027446541</v>
+        <v>0.0254686342658538</v>
       </c>
       <c r="R13">
-        <v>0.06704119850187265</v>
+        <v>0.255720823798627</v>
       </c>
       <c r="S13">
-        <v>3.699999999999999</v>
+        <v>275</v>
       </c>
       <c r="T13">
-        <v>0.1712962962962963</v>
+        <v>0.3808864265927978</v>
       </c>
       <c r="U13">
-        <v>199.4</v>
+        <v>173</v>
       </c>
       <c r="V13">
-        <v>0.08060147944541009</v>
+        <v>0.009856988205800239</v>
       </c>
       <c r="W13">
-        <v>0.1661584417200821</v>
+        <v>0.1110264227642276</v>
       </c>
       <c r="X13">
-        <v>0.05499125030641588</v>
+        <v>0.04651485101033583</v>
       </c>
       <c r="Y13">
-        <v>0.1111671914136662</v>
+        <v>0.06451157175389181</v>
       </c>
       <c r="Z13">
-        <v>2.182097523951319</v>
+        <v>1.076128157467665</v>
       </c>
       <c r="AA13">
-        <v>0.1233387917049157</v>
+        <v>0.1085416760004762</v>
       </c>
       <c r="AB13">
-        <v>0.04566585368974487</v>
+        <v>0.03972143116347179</v>
       </c>
       <c r="AC13">
-        <v>0.07767293801517078</v>
+        <v>0.06882024483700439</v>
       </c>
       <c r="AD13">
-        <v>805</v>
+        <v>4430</v>
       </c>
       <c r="AE13">
-        <v>136.0277521615656</v>
+        <v>208.3704274037615</v>
       </c>
       <c r="AF13">
-        <v>941.0277521615656</v>
+        <v>4638.370427403762</v>
       </c>
       <c r="AG13">
-        <v>741.6277521615656</v>
+        <v>4465.370427403762</v>
       </c>
       <c r="AH13">
-        <v>0.2755630046831644</v>
+        <v>0.2090356931296887</v>
       </c>
       <c r="AI13">
-        <v>0.2709843436503711</v>
+        <v>0.2066975873865019</v>
       </c>
       <c r="AJ13">
-        <v>0.2306395121805505</v>
+        <v>0.2028204622613779</v>
       </c>
       <c r="AK13">
-        <v>0.2265738311890492</v>
+        <v>0.200534249967314</v>
       </c>
       <c r="AL13">
-        <v>51.5</v>
+        <v>222</v>
       </c>
       <c r="AM13">
-        <v>51.5</v>
+        <v>222</v>
       </c>
       <c r="AN13">
-        <v>1.585894405043341</v>
+        <v>1.423979427836708</v>
       </c>
       <c r="AO13">
-        <v>7.132038834951457</v>
+        <v>11.4009009009009</v>
       </c>
       <c r="AP13">
-        <v>1.461047581090555</v>
+        <v>1.435348899840489</v>
       </c>
       <c r="AQ13">
-        <v>7.132038834951457</v>
+        <v>11.4009009009009</v>
       </c>
     </row>
     <row r="14">
@@ -2187,7 +2169,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Assurant, Inc. (NYSE:AIZ)</t>
+          <t>American Financial Group, Inc. (NYSE:AFG)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2196,121 +2178,121 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.009889999999999999</v>
+        <v>0.034</v>
       </c>
       <c r="E14">
-        <v>-0.12</v>
+        <v>-0.0643</v>
       </c>
       <c r="G14">
-        <v>0.06640184547269548</v>
+        <v>0.2131916655167655</v>
       </c>
       <c r="H14">
-        <v>0.06640184547269548</v>
+        <v>0.2131916655167655</v>
       </c>
       <c r="I14">
-        <v>0.06516273715554796</v>
+        <v>0.0938496389369787</v>
       </c>
       <c r="J14">
-        <v>0.04430318918888903</v>
+        <v>0.09174538694287604</v>
       </c>
       <c r="K14">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="L14">
-        <v>0.02896481809059781</v>
+        <v>0.03463502138816062</v>
       </c>
       <c r="M14">
-        <v>367.1</v>
+        <v>393</v>
       </c>
       <c r="N14">
-        <v>0.04628555577970547</v>
+        <v>0.05164732629808261</v>
       </c>
       <c r="O14">
-        <v>1.311071428571429</v>
+        <v>1.565737051792829</v>
       </c>
       <c r="P14">
-        <v>150.7</v>
+        <v>160</v>
       </c>
       <c r="Q14">
-        <v>0.01900090780714141</v>
+        <v>0.02102690129184025</v>
       </c>
       <c r="R14">
-        <v>0.5382142857142856</v>
+        <v>0.6374501992031872</v>
       </c>
       <c r="S14">
-        <v>216.4</v>
+        <v>233</v>
       </c>
       <c r="T14">
-        <v>0.5894851539090167</v>
+        <v>0.5928753180661578</v>
       </c>
       <c r="U14">
-        <v>1813.6</v>
+        <v>3747</v>
       </c>
       <c r="V14">
-        <v>0.2286665321767198</v>
+        <v>0.4924237446282838</v>
       </c>
       <c r="W14">
-        <v>0.05367583628869932</v>
+        <v>0.03970890681854137</v>
       </c>
       <c r="X14">
-        <v>0.05707814474246456</v>
+        <v>0.05111595144717344</v>
       </c>
       <c r="Y14">
-        <v>-0.00340230845376524</v>
+        <v>-0.01140704462863208</v>
       </c>
       <c r="Z14">
-        <v>2.692511043400297</v>
+        <v>1.18311445729092</v>
       </c>
       <c r="AA14">
-        <v>0.1192868261489364</v>
+        <v>0.1085452936818663</v>
       </c>
       <c r="AB14">
-        <v>0.04542077862214285</v>
+        <v>0.04084964573973824</v>
       </c>
       <c r="AC14">
-        <v>0.07386604752679352</v>
+        <v>0.06769564794212804</v>
       </c>
       <c r="AD14">
-        <v>3699.5</v>
+        <v>3364</v>
       </c>
       <c r="AE14">
-        <v>109.8916809551666</v>
+        <v>184.3583331185765</v>
       </c>
       <c r="AF14">
-        <v>3809.391680955167</v>
+        <v>3548.358333118576</v>
       </c>
       <c r="AG14">
-        <v>1995.791680955167</v>
+        <v>-198.6416668814236</v>
       </c>
       <c r="AH14">
-        <v>0.3244633477147933</v>
+        <v>0.3180199847656392</v>
       </c>
       <c r="AI14">
-        <v>0.400997391194598</v>
+        <v>0.3588420052734376</v>
       </c>
       <c r="AJ14">
-        <v>0.2010469782889083</v>
+        <v>-0.02680486104637759</v>
       </c>
       <c r="AK14">
-        <v>0.2596593688783922</v>
+        <v>-0.03234490744664845</v>
       </c>
       <c r="AL14">
-        <v>111.5</v>
+        <v>82</v>
       </c>
       <c r="AM14">
-        <v>111.5</v>
+        <v>82</v>
       </c>
       <c r="AN14">
-        <v>4.76985559566787</v>
+        <v>3.269193391642371</v>
       </c>
       <c r="AO14">
-        <v>5.624215246636772</v>
+        <v>8.182926829268293</v>
       </c>
       <c r="AP14">
-        <v>2.573222899632758</v>
+        <v>-0.1930434080480307</v>
       </c>
       <c r="AQ14">
-        <v>5.624215246636772</v>
+        <v>8.182926829268293</v>
       </c>
     </row>
     <row r="15">
@@ -2321,7 +2303,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Horace Mann Educators Corporation (NYSE:HMN)</t>
+          <t>Crawford &amp; Company (NYSE:CRD.B)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2330,124 +2312,121 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.0557</v>
+        <v>-0.0365</v>
       </c>
       <c r="E15">
-        <v>0.0388</v>
-      </c>
-      <c r="F15">
-        <v>0.127</v>
+        <v>0.0405</v>
       </c>
       <c r="G15">
-        <v>0.02896341463414634</v>
+        <v>0.08927285817134629</v>
       </c>
       <c r="H15">
-        <v>0.02896341463414634</v>
+        <v>0.08927285817134629</v>
       </c>
       <c r="I15">
-        <v>0.1536257741376226</v>
+        <v>0.069048581321078</v>
       </c>
       <c r="J15">
-        <v>0.1200458699634073</v>
+        <v>0.034524290660539</v>
       </c>
       <c r="K15">
-        <v>131.2</v>
+        <v>11.6</v>
       </c>
       <c r="L15">
-        <v>0.09523809523809523</v>
+        <v>0.01193047413349789</v>
       </c>
       <c r="M15">
-        <v>56.74</v>
+        <v>14.33</v>
       </c>
       <c r="N15">
-        <v>0.03140532462500692</v>
+        <v>0.03688545688545689</v>
       </c>
       <c r="O15">
-        <v>0.432469512195122</v>
+        <v>1.235344827586207</v>
       </c>
       <c r="P15">
-        <v>47.2</v>
+        <v>10.3</v>
       </c>
       <c r="Q15">
-        <v>0.02612497924392539</v>
+        <v>0.02651222651222651</v>
       </c>
       <c r="R15">
-        <v>0.3597560975609757</v>
+        <v>0.8879310344827587</v>
       </c>
       <c r="S15">
-        <v>9.539999999999999</v>
+        <v>4.030000000000001</v>
       </c>
       <c r="T15">
-        <v>0.1681353542474445</v>
+        <v>0.281228192602931</v>
       </c>
       <c r="U15">
-        <v>39.3</v>
+        <v>48.7</v>
       </c>
       <c r="V15">
-        <v>0.02175236619250567</v>
+        <v>0.1253539253539254</v>
       </c>
       <c r="W15">
-        <v>0.1005903549796826</v>
+        <v>0.0705596107055961</v>
       </c>
       <c r="X15">
-        <v>0.05234276208303799</v>
+        <v>0.05556835731406998</v>
       </c>
       <c r="Y15">
-        <v>0.04824759289664458</v>
+        <v>0.01499125339152613</v>
       </c>
       <c r="Z15">
-        <v>0.8859758429980423</v>
+        <v>2.861217935825614</v>
       </c>
       <c r="AA15">
-        <v>0.1063577408392631</v>
+        <v>0.09878151965959092</v>
       </c>
       <c r="AB15">
-        <v>0.04603313518261175</v>
+        <v>0.03902000044536869</v>
       </c>
       <c r="AC15">
-        <v>0.06032460565665138</v>
+        <v>0.05976151921422224</v>
       </c>
       <c r="AD15">
-        <v>451.4</v>
+        <v>127.8</v>
       </c>
       <c r="AE15">
-        <v>6.725667740055893</v>
+        <v>129.3203219075794</v>
       </c>
       <c r="AF15">
-        <v>458.1256677400559</v>
+        <v>257.1203219075794</v>
       </c>
       <c r="AG15">
-        <v>418.8256677400558</v>
+        <v>208.4203219075794</v>
       </c>
       <c r="AH15">
-        <v>0.2022785569174488</v>
+        <v>0.3982531422615073</v>
       </c>
       <c r="AI15">
-        <v>0.2249324368992662</v>
+        <v>0.5851352545357652</v>
       </c>
       <c r="AJ15">
-        <v>0.1881917938809301</v>
+        <v>0.349159367269538</v>
       </c>
       <c r="AK15">
-        <v>0.2096827303786113</v>
+        <v>0.5334258553279931</v>
       </c>
       <c r="AL15">
-        <v>14.5</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="AM15">
-        <v>14.5</v>
+        <v>8.702999999999999</v>
       </c>
       <c r="AN15">
-        <v>2.049210096241147</v>
+        <v>1.104580812445981</v>
       </c>
       <c r="AO15">
-        <v>14.51034482758621</v>
+        <v>6.349557522123894</v>
       </c>
       <c r="AP15">
-        <v>1.901333156619102</v>
+        <v>1.801385669036987</v>
       </c>
       <c r="AQ15">
-        <v>14.51034482758621</v>
+        <v>6.595426864299667</v>
       </c>
     </row>
     <row r="16">
@@ -2458,7 +2437,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Goosehead Insurance, Inc (NasdaqGS:GSHD)</t>
+          <t>Horace Mann Educators Corporation (NYSE:HMN)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2466,119 +2445,122 @@
           <t>Insurance (General)</t>
         </is>
       </c>
-      <c r="F16">
-        <v>0.5</v>
+      <c r="D16">
+        <v>0.0363</v>
+      </c>
+      <c r="E16">
+        <v>0.0295</v>
       </c>
       <c r="G16">
-        <v>-0.1529562982005142</v>
+        <v>0.2304395261845386</v>
       </c>
       <c r="H16">
-        <v>-0.1529562982005142</v>
+        <v>0.2304395261845386</v>
       </c>
       <c r="I16">
-        <v>0.1906028593561291</v>
+        <v>0.1233853777871765</v>
       </c>
       <c r="J16">
-        <v>0.1702803028287538</v>
+        <v>0.1034028802530439</v>
       </c>
       <c r="K16">
-        <v>4.46</v>
+        <v>118.5</v>
       </c>
       <c r="L16">
-        <v>0.05732647814910026</v>
+        <v>0.09234725685785536</v>
       </c>
       <c r="M16">
-        <v>0.09</v>
+        <v>53.32</v>
       </c>
       <c r="N16">
-        <v>0.0001395781637717122</v>
+        <v>0.03062607696726019</v>
       </c>
       <c r="O16">
-        <v>0.02017937219730942</v>
+        <v>0.449957805907173</v>
       </c>
       <c r="P16">
-        <v>0.09</v>
+        <v>49.1</v>
       </c>
       <c r="Q16">
-        <v>0.0001395781637717122</v>
+        <v>0.02820218265364733</v>
       </c>
       <c r="R16">
-        <v>0.02017937219730942</v>
+        <v>0.4143459915611815</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>4.219999999999999</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>0.07914478619654912</v>
       </c>
       <c r="U16">
-        <v>10.8</v>
+        <v>65.5</v>
       </c>
       <c r="V16">
-        <v>0.01674937965260546</v>
+        <v>0.0376220562894888</v>
       </c>
       <c r="W16">
-        <v>0.05373493975903614</v>
+        <v>0.07506651463321931</v>
       </c>
       <c r="X16">
-        <v>0.04920750104296664</v>
+        <v>0.04645139330646347</v>
       </c>
       <c r="Y16">
-        <v>0.004527438716069497</v>
+        <v>0.02861512132675584</v>
       </c>
       <c r="Z16">
-        <v>0.5823114105058249</v>
+        <v>0.6608780043236806</v>
       </c>
       <c r="AA16">
-        <v>0.09915616332157061</v>
+        <v>0.0683366891429522</v>
       </c>
       <c r="AB16">
-        <v>0.04726611902948291</v>
+        <v>0.03972790786122161</v>
       </c>
       <c r="AC16">
-        <v>0.0518900442920877</v>
+        <v>0.02860878128173058</v>
       </c>
       <c r="AD16">
-        <v>46.9</v>
+        <v>437.2</v>
       </c>
       <c r="AE16">
-        <v>19.80548771046579</v>
+        <v>18.05941611747557</v>
       </c>
       <c r="AF16">
-        <v>66.70548771046579</v>
+        <v>455.2594161174756</v>
       </c>
       <c r="AG16">
-        <v>55.90548771046579</v>
+        <v>389.7594161174756</v>
       </c>
       <c r="AH16">
-        <v>0.09375259764350598</v>
+        <v>0.2072885437742497</v>
       </c>
       <c r="AI16">
-        <v>1.718970476757477</v>
+        <v>0.2097042499908439</v>
       </c>
       <c r="AJ16">
-        <v>0.07978457239308244</v>
+        <v>0.182920424131068</v>
       </c>
       <c r="AK16">
-        <v>1.99623331999941</v>
+        <v>0.1851184654208166</v>
       </c>
       <c r="AL16">
-        <v>2.53</v>
+        <v>16.1</v>
       </c>
       <c r="AM16">
-        <v>1.955</v>
+        <v>16.1</v>
       </c>
       <c r="AN16">
-        <v>2.162286768095897</v>
+        <v>2.358907952951332</v>
       </c>
       <c r="AO16">
-        <v>6.758893280632412</v>
+        <v>9.782608695652174</v>
       </c>
       <c r="AP16">
-        <v>2.577477533908059</v>
+        <v>2.102942786864549</v>
       </c>
       <c r="AQ16">
-        <v>8.74680306905371</v>
+        <v>9.782608695652174</v>
       </c>
     </row>
     <row r="17">
@@ -2589,7 +2571,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>eHealth, Inc. (NasdaqGS:EHTH)</t>
+          <t>American National Group, Inc. (NasdaqGS:ANAT)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2598,106 +2580,103 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.124</v>
+        <v>0.04389999999999999</v>
       </c>
       <c r="E17">
-        <v>0.319</v>
-      </c>
-      <c r="F17">
-        <v>0.49</v>
+        <v>0.0594</v>
       </c>
       <c r="G17">
-        <v>0.09239835002946377</v>
+        <v>0.2041658693928874</v>
       </c>
       <c r="H17">
-        <v>0.06305244549204478</v>
+        <v>0.2041658693928874</v>
       </c>
       <c r="I17">
-        <v>0.05986877867299276</v>
+        <v>0.1101342532177946</v>
       </c>
       <c r="J17">
-        <v>0.05986877867299276</v>
+        <v>0.08708715652304946</v>
       </c>
       <c r="K17">
-        <v>4.14</v>
+        <v>332.3</v>
       </c>
       <c r="L17">
-        <v>0.01219799646434885</v>
+        <v>0.09083454063362764</v>
       </c>
       <c r="M17">
-        <v>12.6</v>
+        <v>88.2</v>
       </c>
       <c r="N17">
-        <v>0.005694657868570912</v>
+        <v>0.03414105442440195</v>
       </c>
       <c r="O17">
-        <v>3.043478260869565</v>
+        <v>0.2654228107132109</v>
       </c>
       <c r="P17">
-        <v>-0</v>
+        <v>88.2</v>
       </c>
       <c r="Q17">
-        <v>-0</v>
+        <v>0.03414105442440195</v>
       </c>
       <c r="R17">
-        <v>-0</v>
+        <v>0.2654228107132109</v>
       </c>
       <c r="S17">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>88.09999999999999</v>
+        <v>884.1</v>
       </c>
       <c r="V17">
-        <v>0.03981740938262678</v>
+        <v>0.3422234264922195</v>
       </c>
       <c r="W17">
-        <v>0.01508196721311475</v>
+        <v>0.05703154498335221</v>
       </c>
       <c r="X17">
-        <v>0.047668968292647</v>
+        <v>0.04638737817008969</v>
       </c>
       <c r="Y17">
-        <v>-0.03258700107953225</v>
+        <v>0.01064416681326252</v>
       </c>
       <c r="Z17">
-        <v>1.40594957916737</v>
+        <v>0.6576388883918384</v>
       </c>
       <c r="AA17">
-        <v>0.08417248418055859</v>
+        <v>0.05727190080902429</v>
       </c>
       <c r="AB17">
-        <v>0.04703209869864618</v>
+        <v>0.03973447050775303</v>
       </c>
       <c r="AC17">
-        <v>0.03714038548191241</v>
+        <v>0.01753743030127126</v>
       </c>
       <c r="AD17">
-        <v>38.5</v>
+        <v>654.8</v>
       </c>
       <c r="AE17">
-        <v>27.4026825919313</v>
+        <v>13.47930726670974</v>
       </c>
       <c r="AF17">
-        <v>65.9026825919313</v>
+        <v>668.2793072667097</v>
       </c>
       <c r="AG17">
-        <v>-22.1973174080687</v>
+        <v>-215.8206927332903</v>
       </c>
       <c r="AH17">
-        <v>0.0289236800533248</v>
+        <v>0.2055182089369233</v>
       </c>
       <c r="AI17">
-        <v>0.1324669894212147</v>
+        <v>0.09797266343975369</v>
       </c>
       <c r="AJ17">
-        <v>-0.01013389801997609</v>
+        <v>-0.09115668990300817</v>
       </c>
       <c r="AK17">
-        <v>-0.05421878837612231</v>
+        <v>-0.03635193615533262</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2706,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>1.25</v>
+        <v>1.431569742020114</v>
       </c>
       <c r="AP17">
-        <v>-0.7206921236385941</v>
+        <v>-0.4718423540299308</v>
       </c>
     </row>
     <row r="18">
@@ -2720,7 +2699,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>American National Insurance Company (NasdaqGS:ANAT)</t>
+          <t>American International Group, Inc. (NYSE:AIG)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2729,115 +2708,121 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.0272</v>
-      </c>
-      <c r="E18">
-        <v>0.0635</v>
+        <v>-0.05</v>
+      </c>
+      <c r="F18">
+        <v>0.0814</v>
       </c>
       <c r="G18">
-        <v>0.0545361875637105</v>
+        <v>0.2643141893371884</v>
       </c>
       <c r="H18">
-        <v>0.0545361875637105</v>
+        <v>0.2643141893371884</v>
       </c>
       <c r="I18">
-        <v>0.08795881543550582</v>
+        <v>0.1041629593362255</v>
       </c>
       <c r="J18">
-        <v>0.07288805658007477</v>
+        <v>0.1041629593362255</v>
       </c>
       <c r="K18">
-        <v>331.9</v>
+        <v>-4962</v>
       </c>
       <c r="L18">
-        <v>0.09398006569260392</v>
+        <v>-0.108687081088185</v>
       </c>
       <c r="M18">
-        <v>88.2</v>
+        <v>1606</v>
       </c>
       <c r="N18">
-        <v>0.02802402058907635</v>
+        <v>0.04923752353038562</v>
       </c>
       <c r="O18">
-        <v>0.2657426935824044</v>
+        <v>-0.3236598145908908</v>
       </c>
       <c r="P18">
-        <v>88.2</v>
+        <v>1106</v>
       </c>
       <c r="Q18">
-        <v>0.02802402058907635</v>
+        <v>0.03390828208256942</v>
       </c>
       <c r="R18">
-        <v>0.2657426935824044</v>
+        <v>-0.2228939943571141</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.3113325031133251</v>
       </c>
       <c r="U18">
-        <v>436.3</v>
+        <v>3191</v>
       </c>
       <c r="V18">
-        <v>0.1386267594446033</v>
+        <v>0.09783121891996296</v>
       </c>
       <c r="W18">
-        <v>0.06177527127887282</v>
+        <v>-0.0762001289965908</v>
       </c>
       <c r="X18">
-        <v>0.04818710184975836</v>
+        <v>0.06774670134358109</v>
       </c>
       <c r="Y18">
-        <v>0.01358816942911446</v>
+        <v>-0.1439468303401719</v>
       </c>
       <c r="Z18">
-        <v>0.7183563133163275</v>
+        <v>0.4712100832856152</v>
       </c>
       <c r="AA18">
-        <v>0.05235959560965441</v>
+        <v>0.04908263674409897</v>
       </c>
       <c r="AB18">
-        <v>0.04678745440426475</v>
+        <v>0.04050503956779336</v>
       </c>
       <c r="AC18">
-        <v>0.005572141205389659</v>
+        <v>0.008577597176305608</v>
       </c>
       <c r="AD18">
-        <v>159</v>
+        <v>38237</v>
       </c>
       <c r="AE18">
-        <v>12.82323703983858</v>
+        <v>792.7212723198036</v>
       </c>
       <c r="AF18">
-        <v>171.8232370398386</v>
+        <v>39029.7212723198</v>
       </c>
       <c r="AG18">
-        <v>-264.4767629601614</v>
+        <v>35838.7212723198</v>
       </c>
       <c r="AH18">
-        <v>0.05176765813404361</v>
+        <v>0.5447493294807165</v>
       </c>
       <c r="AI18">
-        <v>0.02862040009768657</v>
+        <v>0.3766012740770119</v>
       </c>
       <c r="AJ18">
-        <v>-0.09174227526753716</v>
+        <v>0.5235283654145794</v>
       </c>
       <c r="AK18">
-        <v>-0.04750604595852114</v>
+        <v>0.3567968930718008</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1459</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1459</v>
       </c>
       <c r="AN18">
-        <v>0.4334787350054525</v>
+        <v>4.107089151450054</v>
+      </c>
+      <c r="AO18">
+        <v>3.196710075394106</v>
       </c>
       <c r="AP18">
-        <v>-0.7210380669579101</v>
+        <v>3.849486710238432</v>
+      </c>
+      <c r="AQ18">
+        <v>3.196710075394106</v>
       </c>
     </row>
     <row r="19">
@@ -2848,7 +2833,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>American International Group, Inc. (NYSE:AIG)</t>
+          <t>Atlantic American Corporation (NasdaqGM:AAME)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2857,124 +2842,121 @@
         </is>
       </c>
       <c r="D19">
-        <v>-0.05019999999999999</v>
+        <v>0.0237</v>
       </c>
       <c r="E19">
-        <v>-0.273</v>
-      </c>
-      <c r="F19">
-        <v>0.231</v>
+        <v>-0.221</v>
       </c>
       <c r="G19">
-        <v>0.1475643282371789</v>
+        <v>0.01449120937666489</v>
       </c>
       <c r="H19">
-        <v>0.1475643282371789</v>
+        <v>0.01449120937666489</v>
       </c>
       <c r="I19">
-        <v>0.1107906632544503</v>
+        <v>0.01906845078668313</v>
       </c>
       <c r="J19">
-        <v>0.08546085188609591</v>
+        <v>0.01426105263060386</v>
       </c>
       <c r="K19">
-        <v>1797</v>
+        <v>1.59</v>
       </c>
       <c r="L19">
-        <v>0.03554122742825498</v>
+        <v>0.00847096430474161</v>
       </c>
       <c r="M19">
-        <v>1860</v>
+        <v>0.111</v>
       </c>
       <c r="N19">
-        <v>0.04192257846396574</v>
+        <v>0.002636579572446556</v>
       </c>
       <c r="O19">
-        <v>1.035058430717863</v>
+        <v>0.06981132075471698</v>
       </c>
       <c r="P19">
-        <v>1115</v>
+        <v>-0</v>
       </c>
       <c r="Q19">
-        <v>0.02513100805769989</v>
+        <v>-0</v>
       </c>
       <c r="R19">
-        <v>0.6204785754034502</v>
+        <v>-0</v>
       </c>
       <c r="S19">
-        <v>745</v>
+        <v>0.111</v>
       </c>
       <c r="T19">
-        <v>0.4005376344086021</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>3361</v>
+        <v>8.94</v>
       </c>
       <c r="V19">
-        <v>0.0757536485039725</v>
+        <v>0.2123515439429929</v>
       </c>
       <c r="W19">
-        <v>0.03067285699655208</v>
+        <v>0.01365979381443299</v>
       </c>
       <c r="X19">
-        <v>0.06402079857866287</v>
+        <v>0.06221172117510596</v>
       </c>
       <c r="Y19">
-        <v>-0.0333479415821108</v>
+        <v>-0.04855192736067297</v>
       </c>
       <c r="Z19">
-        <v>0.5628798352172969</v>
+        <v>1.55639430668909</v>
       </c>
       <c r="AA19">
-        <v>0.04810419022717548</v>
+        <v>0.02219582112166531</v>
       </c>
       <c r="AB19">
-        <v>0.04644758670353993</v>
+        <v>0.0410386144628473</v>
       </c>
       <c r="AC19">
-        <v>0.001656603523635551</v>
+        <v>-0.01884279334118199</v>
       </c>
       <c r="AD19">
-        <v>35262</v>
+        <v>33.7</v>
       </c>
       <c r="AE19">
-        <v>796.5663759587032</v>
+        <v>6.444258936697888</v>
       </c>
       <c r="AF19">
-        <v>36058.5663759587</v>
+        <v>40.14425893669789</v>
       </c>
       <c r="AG19">
-        <v>32697.5663759587</v>
+        <v>31.20425893669789</v>
       </c>
       <c r="AH19">
-        <v>0.4483442744470402</v>
+        <v>0.4881101666633813</v>
       </c>
       <c r="AI19">
-        <v>0.348379941276441</v>
+        <v>0.2387489123361101</v>
       </c>
       <c r="AJ19">
-        <v>0.4242851906004336</v>
+        <v>0.4256813913587807</v>
       </c>
       <c r="AK19">
-        <v>0.3265101700430201</v>
+        <v>0.1960014081602251</v>
       </c>
       <c r="AL19">
-        <v>1464</v>
+        <v>1.76</v>
       </c>
       <c r="AM19">
-        <v>1464</v>
+        <v>1.76</v>
       </c>
       <c r="AN19">
-        <v>3.164497891052679</v>
+        <v>5.572089947089948</v>
       </c>
       <c r="AO19">
-        <v>3.765027322404372</v>
+        <v>2.210227272727273</v>
       </c>
       <c r="AP19">
-        <v>2.934359362466006</v>
+        <v>5.15943434799899</v>
       </c>
       <c r="AQ19">
-        <v>3.765027322404372</v>
+        <v>2.210227272727273</v>
       </c>
     </row>
     <row r="20">
@@ -2985,7 +2967,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Atlantic American Corporation (NasdaqGM:AAME)</t>
+          <t>BRP Group, Inc. (NasdaqGS:BRP)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2993,119 +2975,354 @@
           <t>Insurance (General)</t>
         </is>
       </c>
-      <c r="D20">
-        <v>0.0335</v>
+      <c r="F20">
+        <v>0.65</v>
       </c>
       <c r="G20">
-        <v>0.01050743208610969</v>
+        <v>0.0981713185755534</v>
       </c>
       <c r="H20">
-        <v>0.01050743208610969</v>
+        <v>0.0981713185755534</v>
       </c>
       <c r="I20">
-        <v>0.001803512754402776</v>
+        <v>0.01960082475200668</v>
       </c>
       <c r="J20">
-        <v>0.001803512754402776</v>
+        <v>0.01960082475200668</v>
       </c>
       <c r="K20">
-        <v>-1.46</v>
+        <v>-14</v>
       </c>
       <c r="L20">
-        <v>-0.007483341875961046</v>
+        <v>-0.06737247353224254</v>
       </c>
       <c r="M20">
-        <v>0.68</v>
+        <v>64.61799999999999</v>
       </c>
       <c r="N20">
-        <v>0.0173027989821883</v>
+        <v>0.04943993879112471</v>
       </c>
       <c r="O20">
-        <v>-0.4657534246575343</v>
+        <v>-4.615571428571428</v>
       </c>
       <c r="P20">
-        <v>0.403</v>
+        <v>0.718</v>
       </c>
       <c r="Q20">
-        <v>0.01025445292620865</v>
+        <v>0.0005493496557000765</v>
       </c>
       <c r="R20">
-        <v>-0.276027397260274</v>
+        <v>-0.05128571428571428</v>
       </c>
       <c r="S20">
-        <v>0.277</v>
+        <v>63.89999999999999</v>
       </c>
       <c r="T20">
-        <v>0.4073529411764706</v>
+        <v>0.9888885449874647</v>
       </c>
       <c r="U20">
-        <v>36</v>
+        <v>50.2</v>
       </c>
       <c r="V20">
-        <v>0.9160305343511451</v>
+        <v>0.03840856924254017</v>
       </c>
       <c r="W20">
-        <v>-0.01429970617042116</v>
+        <v>0.06786233640329617</v>
       </c>
       <c r="X20">
-        <v>0.07030792157368573</v>
+        <v>0.04280911384746756</v>
       </c>
       <c r="Y20">
-        <v>-0.08460762774410689</v>
+        <v>0.02505322255582861</v>
       </c>
       <c r="Z20">
-        <v>1.499319811687655</v>
+        <v>-1.274336446207809</v>
       </c>
       <c r="AA20">
-        <v>0.002704042403307454</v>
+        <v>-0.02497804535721426</v>
       </c>
       <c r="AB20">
-        <v>0.04677726727682775</v>
+        <v>0.04275913426434582</v>
       </c>
       <c r="AC20">
-        <v>-0.0440732248735203</v>
+        <v>-0.06773717962156008</v>
       </c>
       <c r="AD20">
-        <v>39.5</v>
+        <v>101</v>
       </c>
       <c r="AE20">
-        <v>4.270673308080092</v>
+        <v>31.73474308266506</v>
       </c>
       <c r="AF20">
-        <v>43.77067330808009</v>
+        <v>132.7347430826651</v>
       </c>
       <c r="AG20">
-        <v>7.770673308080092</v>
+        <v>82.53474308266506</v>
       </c>
       <c r="AH20">
-        <v>0.5269088544130366</v>
+        <v>0.09219388760353327</v>
       </c>
       <c r="AI20">
-        <v>0.2732752032819981</v>
+        <v>0.2415841822050458</v>
       </c>
       <c r="AJ20">
-        <v>0.1650852380466414</v>
+        <v>0.05939739433903091</v>
       </c>
       <c r="AK20">
-        <v>0.06258058445733204</v>
+        <v>0.1653225145610482</v>
       </c>
       <c r="AL20">
-        <v>2.16</v>
+        <v>4.2</v>
       </c>
       <c r="AM20">
-        <v>2.16</v>
+        <v>4.2</v>
       </c>
       <c r="AN20">
-        <v>19.79949874686717</v>
+        <v>3.660746647335992</v>
       </c>
       <c r="AO20">
-        <v>0.1810185185185185</v>
+        <v>1.388095238095238</v>
       </c>
       <c r="AP20">
-        <v>3.89507433988977</v>
+        <v>2.991473109194094</v>
       </c>
       <c r="AQ20">
-        <v>0.1810185185185185</v>
+        <v>1.388095238095238</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GoHealth, Inc. (NasdaqGS:GOCO)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Insurance (General)</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>0.909</v>
+      </c>
+      <c r="G21">
+        <v>0.1533120399944452</v>
+      </c>
+      <c r="H21">
+        <v>0.07651715039577836</v>
+      </c>
+      <c r="I21">
+        <v>-0.1140719442302497</v>
+      </c>
+      <c r="J21">
+        <v>-0.1140719442302497</v>
+      </c>
+      <c r="K21">
+        <v>-52.5</v>
+      </c>
+      <c r="L21">
+        <v>-0.07290654075822803</v>
+      </c>
+      <c r="M21">
+        <v>-0</v>
+      </c>
+      <c r="N21">
+        <v>-0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>-0</v>
+      </c>
+      <c r="Q21">
+        <v>-0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>294.6</v>
+      </c>
+      <c r="V21">
+        <v>0.06714836003920407</v>
+      </c>
+      <c r="X21">
+        <v>0.04275074851831025</v>
+      </c>
+      <c r="Z21">
+        <v>21.61421656734476</v>
+      </c>
+      <c r="AA21">
+        <v>-2.465575706850691</v>
+      </c>
+      <c r="AB21">
+        <v>0.04087126342961797</v>
+      </c>
+      <c r="AC21">
+        <v>-2.506446970280308</v>
+      </c>
+      <c r="AD21">
+        <v>401</v>
+      </c>
+      <c r="AE21">
+        <v>33.3160352010141</v>
+      </c>
+      <c r="AF21">
+        <v>434.3160352010141</v>
+      </c>
+      <c r="AG21">
+        <v>139.7160352010141</v>
+      </c>
+      <c r="AH21">
+        <v>0.09007686054431072</v>
+      </c>
+      <c r="AI21">
+        <v>0.2558538630532488</v>
+      </c>
+      <c r="AJ21">
+        <v>0.0308627215177978</v>
+      </c>
+      <c r="AK21">
+        <v>0.09958973430722468</v>
+      </c>
+      <c r="AL21">
+        <v>31.2</v>
+      </c>
+      <c r="AM21">
+        <v>31.2</v>
+      </c>
+      <c r="AN21">
+        <v>-163.6734693877551</v>
+      </c>
+      <c r="AO21">
+        <v>-2.608974358974359</v>
+      </c>
+      <c r="AP21">
+        <v>-57.02695314327106</v>
+      </c>
+      <c r="AQ21">
+        <v>-2.608974358974359</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Reliance Global Group, Inc. (OTCPK:RELI)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Insurance (General)</t>
+        </is>
+      </c>
+      <c r="G22">
+        <v>-0.297029702970297</v>
+      </c>
+      <c r="H22">
+        <v>-0.297029702970297</v>
+      </c>
+      <c r="I22">
+        <v>-0.5825132309524828</v>
+      </c>
+      <c r="J22">
+        <v>-0.5825132309524828</v>
+      </c>
+      <c r="K22">
+        <v>-5.11</v>
+      </c>
+      <c r="L22">
+        <v>-0.7227722772277227</v>
+      </c>
+      <c r="M22">
+        <v>-0</v>
+      </c>
+      <c r="N22">
+        <v>-0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>-0</v>
+      </c>
+      <c r="Q22">
+        <v>-0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0.013</v>
+      </c>
+      <c r="V22">
+        <v>0.0004850746268656716</v>
+      </c>
+      <c r="X22">
+        <v>0.05333762770791316</v>
+      </c>
+      <c r="Z22">
+        <v>11.55525731737728</v>
+      </c>
+      <c r="AA22">
+        <v>-6.731090274432761</v>
+      </c>
+      <c r="AB22">
+        <v>0.04199713090910374</v>
+      </c>
+      <c r="AC22">
+        <v>-6.773087405341864</v>
+      </c>
+      <c r="AD22">
+        <v>14.5</v>
+      </c>
+      <c r="AE22">
+        <v>0.6118427141702708</v>
+      </c>
+      <c r="AF22">
+        <v>15.11184271417027</v>
+      </c>
+      <c r="AG22">
+        <v>15.09884271417027</v>
+      </c>
+      <c r="AH22">
+        <v>0.3605625936618864</v>
+      </c>
+      <c r="AI22">
+        <v>0.9854579532273953</v>
+      </c>
+      <c r="AJ22">
+        <v>0.3603641947147102</v>
+      </c>
+      <c r="AK22">
+        <v>0.9854456148545526</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>-5.418535127055307</v>
+      </c>
+      <c r="AP22">
+        <v>-5.642317905145842</v>
       </c>
     </row>
   </sheetData>
